--- a/baymax_ui_auto_test/Report/Report.xlsx
+++ b/baymax_ui_auto_test/Report/Report.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="176">
   <si>
     <t>测试报告总概况</t>
   </si>
   <si>
-    <t>Baymax_ui_aotutest项目</t>
+    <t>Baymax_ui_autotest项目</t>
   </si>
   <si>
     <t>测试日期</t>
@@ -32,10 +32,10 @@
     <t>总用例</t>
   </si>
   <si>
-    <t>2019-01-28 16:01:54</t>
-  </si>
-  <si>
-    <t>25秒</t>
+    <t>2020-02-27 10:24:20</t>
+  </si>
+  <si>
+    <t>411秒</t>
   </si>
   <si>
     <t>通过</t>
@@ -47,7 +47,7 @@
     <t>脚本版本</t>
   </si>
   <si>
-    <t>2019-01-22</t>
+    <t>2020-01-14</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -77,103 +77,812 @@
     <t xml:space="preserve">测试结果 </t>
   </si>
   <si>
+    <t>看截图往右边拉-》</t>
+  </si>
+  <si>
     <t>截图</t>
   </si>
   <si>
     <t>chrome</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>校验“成功登录”页面</t>
-  </si>
-  <si>
-    <t>testlogin</t>
-  </si>
-  <si>
-    <t>环境正常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击租户输入框
-向租户输入框输入内容
-点击租户的下拉框
-输入账号
+    <t>test017</t>
+  </si>
+  <si>
+    <t>校验“展开资源目录的文件夹”页面</t>
+  </si>
+  <si>
+    <t>test_a017_open_dir</t>
+  </si>
+  <si>
+    <t>先进入资源目录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据标准’文件夹图标
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言“文件夹a”可见
+断言“文件夹b”可见
+</t>
+  </si>
+  <si>
+    <t>test018</t>
+  </si>
+  <si>
+    <t>校验“闭合资源目录的文件夹”页面</t>
+  </si>
+  <si>
+    <t>test_a018_close_dir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取点击‘数据标准’文件夹图标之前 的class属性值
+点击‘数据标准’文件夹图标
+获取点击‘数据标准’文件夹图标之前 的class属性值
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言 点击文件夹按钮之前 元素的属性值class包含fa-folder-open
+断言 点击文件夹按钮后 元素的属性值class不包含fa-folder-open
+断言 点击文件夹按钮后 元素的属性值class包含close
+</t>
+  </si>
+  <si>
+    <t>test022</t>
+  </si>
+  <si>
+    <t>校验“新建JDBC数据源”页面</t>
+  </si>
+  <si>
+    <t>test_a022_create_dbsource_jdbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据源'文件夹图标
+点击‘auto_DataSource'的文字
+点击‘新建’按钮
+点击‘JDBC’按钮
+输入JDBC名称
+点击‘数据库类型’下拉框
+点击‘auto_mysql’下拉框选项
+输入“IP或服务器名”
+输入‘数据库’
+输入用户名
 输入密码
-点击确定登录
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查“admin用户名是否存在”
-检查“数据集成按钮是否存在”
-</t>
-  </si>
-  <si>
-    <t>test002</t>
-  </si>
-  <si>
-    <t>校验“资源目录”页面</t>
-  </si>
-  <si>
-    <t>test_a0_resource_dir</t>
-  </si>
-  <si>
-    <t>成功登录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鼠标悬停到‘数据集成’标签
-点击资源目录
-移送鼠标到0,0像素
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查“数据源按钮是否存在”
-检查“元数据按钮是否存在”
-检查“数据集按钮是否存在”
-检查“数据标准按钮是否存在”
-检查“目录按钮是否存在”
-</t>
-  </si>
-  <si>
-    <t>test003</t>
-  </si>
-  <si>
-    <t>校验“文件管理”页面</t>
-  </si>
-  <si>
-    <t>test_a1_file_manage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鼠标悬停到‘数据集成’标签
-点击文件管理
-移送鼠标到0,0像素
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查“文件列表”按钮是否存在
-检查“文件上传”按钮是否存在
-检查"文件管理的URL"是否正确
-</t>
-  </si>
-  <si>
-    <t>test005</t>
-  </si>
-  <si>
-    <t>校验“文件导入”页面</t>
-  </si>
-  <si>
-    <t>test_a3_file_import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鼠标悬停到‘数据集成’标签
-点击文件导入
-移送鼠标到0,0像素
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查“创建按钮是否存在”
-检查“执行列表按钮是否存在”
-检查"文件导入的URL"是否正确
+点击‘确定按钮’按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言‘新建’按钮存在
+断言“新建的JDBC数据源存在”出现
+</t>
+  </si>
+  <si>
+    <t>test023</t>
+  </si>
+  <si>
+    <t>校验“新建JDBC数据源-链接测试”页面</t>
+  </si>
+  <si>
+    <t>test_a023_create_dbsource_jdbc_connect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据源'文件夹图标
+点击‘auto_DataSource'的文字
+点击‘新建’按钮
+点击‘JDBC’按钮
+输入JDBC名称
+点击‘数据库类型’下拉框
+点击‘auto_mysql’下拉框选项
+输入“IP或服务器名”
+输入‘数据库’
+输入用户名
+输入密码
+点击‘连接测试’按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言“恭喜你，连接成功”出现
+</t>
+  </si>
+  <si>
+    <t>test024</t>
+  </si>
+  <si>
+    <t>校验“删除JDBC数据源”页面</t>
+  </si>
+  <si>
+    <t>test_a024_delete_dbsource_jdbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据源'文件夹图标
+点击‘auto_DataSource'的文字
+获取列表中最后一条'JDBC'是title
+勾选列表中最后一条'JDBC'
+点击‘删除'按钮
+点击‘确定'按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言“恭喜你，删除已成功！”出现
+断言“此条JDBC”被删除
+</t>
+  </si>
+  <si>
+    <t>test025</t>
+  </si>
+  <si>
+    <t>校验“元数据-新建schema”页面</t>
+  </si>
+  <si>
+    <t>test_a025_create_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘元数据’文件夹图标
+点击‘auto_schema'的文字
+点击‘新建’按钮
+点击‘scheme’按钮
+输入schema名称
+点击‘确定’按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言‘分页器’是显示状态
+断言“新建的schema存在”出现
+</t>
+  </si>
+  <si>
+    <t>test026</t>
+  </si>
+  <si>
+    <t>校验“元数据-移动schema”页面</t>
+  </si>
+  <si>
+    <t>test_a026_move_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘元数据’文件夹图标
+点击‘auto_schema'的文字
+获取列表中最后一条'schema_'是title
+勾选列表中最后一条'schema_'
+点击‘移动'按钮
+点击“弹出树-元数据”文件夹按钮
+点击“弹出树-move_to”文字
+点击弹出树的‘确定'按钮
+点击‘确定'按钮
+点击‘move_to'文字
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言“此条shcema”已经被移动到move_to文件夹
+</t>
+  </si>
+  <si>
+    <t>test027</t>
+  </si>
+  <si>
+    <t>校验“元数据-复制schema”页面</t>
+  </si>
+  <si>
+    <t>test_a027_copy_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘元数据’文件夹图标
+点击‘auto_schema'的文字
+等待加载圈消失
+获取列表中第一条'schema_'是title
+勾选列表中第一条'schema_'
+点击‘复制'按钮
+点击‘确定'按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言“此条shcema”列表中存在
+</t>
+  </si>
+  <si>
+    <t>test028</t>
+  </si>
+  <si>
+    <t>校验“元数据-删除schema”页面</t>
+  </si>
+  <si>
+    <t>test_a028_delete_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘元数据’文件夹图标
+点击‘move_to'的文字
+获取列表中最后一条'schema_'是title
+勾选列表中最后一条'schema_'
+点击‘删除'按钮
+点击‘确定'按钮
+</t>
+  </si>
+  <si>
+    <t>test030</t>
+  </si>
+  <si>
+    <t>校验“新建Dataset数据集”页面</t>
+  </si>
+  <si>
+    <t>test_a030_create_Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据集'文件夹图标
+点击‘auto_dataset'的文字
+等待加载圈消失
+点击‘新建’按钮
+点击‘数据库’按钮
+输入"DB数据集"名称
+点击‘数据源搜索’按钮
+点击 弹框中 树的‘数据源’文件夹图标
+点击 弹框中 树的‘auto_initial_data_source’文字
+勾选列表中'dbs_mysql_info10'数据源
+点击‘确定’按钮
+点击‘选择表’输入框
+点击‘选择表’输入框
+点击‘确定’按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言‘分页器’是显示状态
+断言“新建的DBdataset存在”出现
+</t>
+  </si>
+  <si>
+    <t>test031</t>
+  </si>
+  <si>
+    <t>校验“数据集-移动Dataset”页面</t>
+  </si>
+  <si>
+    <t>test_a031_move_Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据集'文件夹图标
+点击‘auto_dataset'的文字
+获取列表中最后一条'DBdataset_'是title
+勾选列表中最后一条'DBdataset_'
+点击‘移动'按钮
+点击“弹出树-数据集”文件夹按钮
+点击“弹出树-movo_to_dataset”文字
+点击弹出树的‘确定'按钮
+点击‘确定'按钮
+点击‘move_to'文字
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言“此条dataset”已经被移动到movo_to_dataset文件夹
+</t>
+  </si>
+  <si>
+    <t>test032</t>
+  </si>
+  <si>
+    <t>校验“数据集-删除Dataset”页面</t>
+  </si>
+  <si>
+    <t>test_a032_delete_Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据集'文件夹图标
+点击‘movo_to_dataset'的文字
+等待加载圈消失
+获取列表中最后一条'DB_oracle_dataset_'是title
+勾选列表中最后一条'DBdataset_'
+点击‘删除'按钮
+点击‘确定'按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言“恭喜你，删除已成功！”出现
+断言“此条DB_oracle_dataset_”被删除
+</t>
+  </si>
+  <si>
+    <t>test033</t>
+  </si>
+  <si>
+    <t>校验“数据集-预览Dataset”页面</t>
+  </si>
+  <si>
+    <t>test_a033_preview_Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据集'文件夹图标
+点击‘auto_initial_dataset'的文字
+在搜索框输入“import_mysql_c_1_in”
+点击‘搜索'按钮
+点击列表中最后一条'DBdataset'的 预览按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言“数据集预览”标题出现
+断言“id”列出现
+断言“name”列出现
+断言“age”列出现
+断言“gender”列出现
+断言“xiaoming”列出现
+断言“确定”按钮出现
+断言“刷新”按钮出现
+断言“取消”按钮出现
+</t>
+  </si>
+  <si>
+    <t>test034</t>
+  </si>
+  <si>
+    <t>校验“数据集-查看Dataset”页面</t>
+  </si>
+  <si>
+    <t>test_a034_view_Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据集'文件夹图标
+点击‘auto_dataset'的文字
+搜索输入框输入‘auto_oracle_ds'文字
+点击搜索按钮
+获取列表中第一条'auto_oracle_ds'是title
+点击列表中第一条'DBdataset'的 查看按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言查看页里的数据集是点击的数据集
+</t>
+  </si>
+  <si>
+    <t>test035</t>
+  </si>
+  <si>
+    <t>校验“新建HDFS数据集”页面</t>
+  </si>
+  <si>
+    <t>test_a035_create_HDFSDataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据集'文件夹图标
+点击‘auto_HDFSdataset'的文字
+等待加载圈消失
+点击‘新建’按钮
+点击‘存储’按钮
+输入"HDFSDBdataset数据集"名称
+点击‘schema搜索’按钮
+等待加载圈消失
+点击 弹框中 树的‘元数据’文件夹图标
+点击 弹框中 树的‘auto_initial_schema’文字
+获取schema名称
+勾选列表中'schema_id_name_age_gender'schema
+点击‘确定’按钮
+输入HDFS的地址
+点击‘确定’按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言“新建的HDFSdataset存在”出现
+断言“新建的HDFSdataset存在”出现
+</t>
+  </si>
+  <si>
+    <t>test036</t>
+  </si>
+  <si>
+    <t>校验“数据集-移动HDFSDataset”页面</t>
+  </si>
+  <si>
+    <t>test_a036_move_HDFSDDataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据集'文件夹图标
+点击‘auto_HDFSdataset'的文字
+获取列表中最后一条'HDFSdataset_'是title
+勾选列表中最后一条'HDFSdataset_'
+点击‘移动'按钮
+点击“弹出树-数据集”文件夹按钮
+点击“弹出树-movo_to_HDFSdataset”文字
+点击弹出树的‘确定'按钮
+点击‘确定'按钮
+等待加载圈消失
+点击‘movo_to_HDFSdataset'文字
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言“此条dataset”已经被移动到movo_to_HDFSdataset文件夹
+</t>
+  </si>
+  <si>
+    <t>test038</t>
+  </si>
+  <si>
+    <t>test_a037_preview_HDFSDataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">等待1秒
+点击‘数据集'文件夹图标
+点击‘auto_initial_dataset'的文字
+在搜索框输入“flow_to_id_name_age_gender”
+点击‘搜索'按钮
+点击列表中最后一条'DBdataset'的 预览按钮
+</t>
+  </si>
+  <si>
+    <t>test037</t>
+  </si>
+  <si>
+    <t>校验“数据集-删除HDFSDataset”页面</t>
+  </si>
+  <si>
+    <t>test_a038_delete_HDFSDataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据集'文件夹图标
+点击‘movo_to_HDFSdataset'的文字
+获取列表中最后一条'HDFSdataset_'是title
+勾选列表中最后一条'HDFSdataset_'
+点击‘删除'按钮
+点击‘确定'按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言“恭喜你，删除已成功！”出现
+断言“此条DBdataset_”被删除
+</t>
+  </si>
+  <si>
+    <t>test039</t>
+  </si>
+  <si>
+    <t>test_a039_view_HDFSDataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据集'文件夹图标
+点击‘movo_to_HDFSdataset'的文字
+获取列表中第一条'HDFSDBds'是title
+点击列表中第一条'HDFSDBdataset'的 查看按钮
+</t>
+  </si>
+  <si>
+    <t>test040</t>
+  </si>
+  <si>
+    <t>校验“新建数据标准standard”页面</t>
+  </si>
+  <si>
+    <t>test_a040_create_standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据标准'文件夹图标
+点击‘auto_standard'的文字
+点击‘新建’按钮
+点击新建下拉菜单中的‘标准’按钮
+输入Standard名称
+点击 新建Standard页面中的‘增加’按钮
+在 标准配置 弹框 name列中 输入“id”
+在 标准配置 弹框 编号 列中 输入“1”
+在 标准配置 弹框 中 点击“确定”按钮
+点击 新建Standard页面中的‘确定’按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言‘新建’按钮存在
+断言“新建的数据标准存在列表”出现
+</t>
+  </si>
+  <si>
+    <t>test041</t>
+  </si>
+  <si>
+    <t>校验“数据标准--移动standard”页面</t>
+  </si>
+  <si>
+    <t>test_a041_move_standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据标准'文件夹图标
+点击‘auto_standard'的文字
+获取列表中最后一条'Standard_'是title
+勾选列表中最后一条'Standard_'
+点击‘移动'按钮
+点击“弹出树-数据标准”文件夹按钮
+点击“弹出树-move_to_standard”文字
+点击弹出树的‘确定'按钮
+点击‘确定'按钮
+点击‘move_to_standard'文字
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言“此条dataset”已经被移动到move_to_standard文件夹
+</t>
+  </si>
+  <si>
+    <t>test042</t>
+  </si>
+  <si>
+    <t>校验“数据标准--删除standard”页面</t>
+  </si>
+  <si>
+    <t>test_a042_delete_standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据集'文件夹图标
+点击‘movo_to_standard'的文字
+获取列表中最后一条'Standard_'是title
+勾选列表中最后一条'Standard_'
+点击‘删除'按钮
+点击‘确定'按钮
+</t>
+  </si>
+  <si>
+    <t>testb001</t>
+  </si>
+  <si>
+    <t>校验“新建oracle-dataset”页面</t>
+  </si>
+  <si>
+    <t>test_b001_create_Oracle_Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据集'文件夹图标
+点击‘auto_dataset'的文字
+点击‘新建’按钮
+点击‘数据库’按钮
+输入"DB_oracle_数据集"名称
+点击‘数据源搜索’按钮
+在搜索框中输入数据的名字“dbs_oracle_info10”
+点击 输入框后面的搜索按钮
+勾选列表中'dbs_oracle_info10'数据源
+点击‘确定’按钮
+点击‘选择表’输入框
+点击‘选择表’输入框
+点击‘确定’按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言‘分页器’是显示状态
+断言“新建的oracle的dDBdataset存在”出现
+</t>
+  </si>
+  <si>
+    <t>test_b002</t>
+  </si>
+  <si>
+    <t>校验“数据源-新建JDBC_oracle的数据源”</t>
+  </si>
+  <si>
+    <t>test_b002_create_dbsource_jdbc_oracle</t>
+  </si>
+  <si>
+    <t>先进入'资源'目录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据源'文件夹图标
+点击‘auto_DataSource'文字
+点击‘新建’按钮
+点击‘JDBC’按钮
+输入JDBC_oracle名称
+点击‘数据库类型’下拉框
+点击‘auto_oracle’下拉框选项
+输入“服务器地址或名称”
+输入‘数据库’
+输入用户名
+输入密码
+输入schema
+点击‘确定按钮’按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言‘新建’按钮存在
+断言“新建的JDBC_oracle数据源存在”出现
+</t>
+  </si>
+  <si>
+    <t>test_b003</t>
+  </si>
+  <si>
+    <t>校验“数据源-新建JDBC_hive数据源”</t>
+  </si>
+  <si>
+    <t>test_b003_create_dbsource_jdbc_hive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据源'文件夹图标
+点击‘auto_DataSource'的文字
+点击‘新建’按钮
+点击‘JDBC’按钮
+输入JDBC_hive名称
+点击‘数据库类型’下拉框
+点击‘auto_hive’下拉框选项
+输入“用户名”
+输入密码
+清除“url”输入框的内容
+输入url
+点击‘确定’按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言‘新建’按钮存在
+断言“新建的JDBC_hive数据源存在”出现
+断言“新建的JDBC_hive数据源存在”出现
+</t>
+  </si>
+  <si>
+    <t>test_b004</t>
+  </si>
+  <si>
+    <t>校验“数据源-新建_http_数据源”</t>
+  </si>
+  <si>
+    <t>test_b004_create_source_http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据源'文件夹图标
+点击‘auto_DataSource'的文字
+点击‘新建’按钮
+点击‘HTTP’按钮
+输入http_source名称
+输入“http url”
+点击‘确定’按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言‘新建’按钮存在
+断言“新建的http_source数据源存在”出现
+断言“新建的http_source数据源存在”出现
+</t>
+  </si>
+  <si>
+    <t>test_b005</t>
+  </si>
+  <si>
+    <t>校验“数据源-新建_ftp_数据源”</t>
+  </si>
+  <si>
+    <t>test_b005_create_source_ftp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据源'文件夹图标
+点击‘auto_DataSource'的文字
+点击‘新建’按钮
+点击‘FTP’按钮
+输入ftp_source名称
+输入"主机"地址
+清除"用户名"
+输入"用户名"
+输入"密码"
+输入“dir”
+点击‘确定’按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言‘新建’按钮存在
+断言“新建的ftp_source数据源存在”出现
+断言“新建的ftp_source数据源存在”出现
+</t>
+  </si>
+  <si>
+    <t>test_b006</t>
+  </si>
+  <si>
+    <t>校验“数据源-新建_socket_数据源”</t>
+  </si>
+  <si>
+    <t>test_b006_create_source_socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据源'文件夹图标
+点击‘auto_DataSource'的文字
+点击‘新建’按钮
+点击‘socket’按钮
+输入socket_source名称
+输入"地址"地址
+输入"端口号"
+点击‘确定’按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言‘新建’按钮存在
+断言“新建的socket_source数据源存在”出现
+断言“新建的socket_source数据源存在”出现
+</t>
+  </si>
+  <si>
+    <t>test_b007</t>
+  </si>
+  <si>
+    <t>校验“数据源-新建_mongodb_数据源”</t>
+  </si>
+  <si>
+    <t>test_b007_create_source_mongodb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据源'文件夹图标
+点击‘auto_DataSource'的文字
+点击‘新建’按钮
+点击‘mongodb’按钮
+输入mongodb_source名称
+输入"地址"
+清除"端口号"
+输入"端口号"
+输入"用户名"
+输入"密码"
+输入"数据库"
+点击‘确定’按钮
+</t>
+  </si>
+  <si>
+    <t>test_b008</t>
+  </si>
+  <si>
+    <t>校验“数据源-新建_ElasticSearch_数据源”</t>
+  </si>
+  <si>
+    <t>test_b008_create_source_ElasticSearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据源'文件夹图标
+点击‘auto_DataSource'的文字
+点击‘新建’按钮
+点击‘ElasticSearch’按钮
+输入es_source名称
+输入"集群名称"
+输入"地址"
+输入"索引"
+输入"索引类型"
+点击‘确定’按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断言‘新建’按钮存在
+断言“新建的es_source数据源存在”出现
+断言“新建的es_source数据源” 与断言时间相差小于5秒
+</t>
+  </si>
+  <si>
+    <t>test_b009</t>
+  </si>
+  <si>
+    <t>校验“数据源-新建JDBC_oracle数据源-链接测试”</t>
+  </si>
+  <si>
+    <t>test_b009_create_dbsource_jdbc_oracle_connect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击‘数据源'文件夹图标
+点击‘auto_DataSource'的文字
+点击‘新建’按钮
+点击‘JDBC’按钮
+输入JDBC_oracle名称
+点击‘数据库类型’下拉框
+点击‘auto_oracle’下拉框选项
+输入“服务器地址或名称”
+输入‘数据库’
+输入用户名
+输入密码
+输入schema
+点击‘连接测试’按钮
+</t>
+  </si>
+  <si>
+    <t>test_b010</t>
+  </si>
+  <si>
+    <t>校验“数据源-新建JDBC_hive数据源_链接测试”</t>
+  </si>
+  <si>
+    <t>test_b010_create_dbsource_jdbc_hive_connect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">等待‘1’秒
+点击‘数据源'文件夹图标
+点击‘auto_DataSource'的文字
+点击‘新建’按钮
+点击‘JDBC’按钮
+输入JDBC_hive名称
+点击‘数据库类型’下拉框
+点击‘auto_hive’下拉框选项
+输入“用户名”
+输入密码
+清除“url”输入框的内容
+输入url
+点击‘连接测试’按钮
 </t>
   </si>
 </sst>
@@ -332,10 +1041,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,18 +1118,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>881063</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="CheckPoint_3__校验“文件管理”页面__NG.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="CheckPoint_2__校验“展开资源目录的文件夹”页面__NG.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -433,8 +1142,1186 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13096875" y="1333500"/>
-          <a:ext cx="1828800" cy="881063"/>
+          <a:off x="13096875" y="571500"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CheckPoint_4__校验“闭合资源目录的文件夹”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="1962150"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="CheckPoint_6__校验“新建JDBC数据源”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="3352800"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="CheckPoint_8__校验“新建JDBC数据源-链接测试”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="4743450"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="CheckPoint_10__校验“删除JDBC数据源”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="6134100"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="CheckPoint_12__校验“元数据-新建schema”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="7524750"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="CheckPoint_14__校验“元数据-移动schema”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="8915400"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="CheckPoint_16__校验“元数据-复制schema”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="10306050"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="CheckPoint_18__校验“元数据-删除schema”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="11696700"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="CheckPoint_20__校验“新建Dataset数据集”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="13087350"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="CheckPoint_22__校验“数据集-移动Dataset”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="14478000"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="CheckPoint_24__校验“数据集-删除Dataset”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="15868650"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="CheckPoint_26__校验“数据集-预览Dataset”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="17259300"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="CheckPoint_28__校验“数据集-查看Dataset”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="18649950"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="CheckPoint_30__校验“新建HDFS数据集”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="20040600"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="CheckPoint_32__校验“数据集-移动HDFSDataset”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="21431250"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="CheckPoint_34__校验“数据集-预览Dataset”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="22821900"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="CheckPoint_36__校验“数据集-删除HDFSDataset”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="24212550"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="CheckPoint_38__校验“数据集-查看Dataset”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="25603200"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="CheckPoint_40__校验“新建数据标准standard”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="26993850"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="CheckPoint_42__校验“数据标准--移动standard”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="28384500"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="CheckPoint_44__校验“数据标准--删除standard”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="29775150"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="CheckPoint_46__校验“新建oracle-dataset”页面__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="31165800"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="CheckPoint_48__校验“数据源-新建JDBC_oracle的数据源”__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="32556450"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="CheckPoint_50__校验“数据源-新建JDBC_hive数据源”__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="33947100"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="CheckPoint_52__校验“数据源-新建_http_数据源”__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="35337750"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="CheckPoint_54__校验“数据源-新建_ftp_数据源”__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="36728400"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="CheckPoint_56__校验“数据源-新建_socket_数据源”__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="38119050"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="CheckPoint_58__校验“数据源-新建_mongodb_数据源”__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="39509700"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="CheckPoint_60__校验“数据源-新建_ElasticSearch_数据源”__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="40900350"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="CheckPoint_62__校验“数据源-新建JDBC_oracle数据源-链接测试”__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="42291000"/>
+          <a:ext cx="1828800" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>882015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="CheckPoint_64__校验“数据源-新建JDBC_hive数据源_链接测试”__NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="43681650"/>
+          <a:ext cx="1828800" cy="882015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1">
@@ -784,7 +2671,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1">
@@ -792,7 +2679,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -813,7 +2700,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -873,49 +2760,51 @@
       <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="110" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
+    </row>
+    <row r="4" spans="1:10" ht="110" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>32</v>
@@ -926,11 +2815,10 @@
       <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="110" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>34</v>
@@ -942,7 +2830,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>37</v>
@@ -951,12 +2839,12 @@
         <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="110" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>39</v>
@@ -968,7 +2856,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>42</v>
@@ -979,13 +2867,735 @@
       <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1"/>
-    <row r="11" spans="1:10" ht="30" customHeight="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="110" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="110" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="110" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="110" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="110" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="110" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="110" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="110" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="110" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="110" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="110" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="110" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="110" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="110" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="110" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="110" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="110" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="110" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="110" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="110" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="110" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="110" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="110" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="110" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="110" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="110" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="110" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="110" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
